--- a/CLC-Milestones/Milestone 2/Milestone 2 SBD RCoon.xlsx
+++ b/CLC-Milestones/Milestone 2/Milestone 2 SBD RCoon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddadd9b5ea9c95e0/Documents/GitHub/CST-350/CLC-Milestones/Milestone 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{40C78078-2618-034E-866B-1DC5F18A3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419FC694-FAAB-432A-9177-8D9EE1AB49B8}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{40C78078-2618-034E-866B-1DC5F18A3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C34EA65F-4DC6-4CFA-A50E-C30F0BC53364}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Project:</t>
   </si>
@@ -94,24 +94,9 @@
     <t>Day 10</t>
   </si>
   <si>
-    <t>build controller</t>
-  </si>
-  <si>
-    <t>build model</t>
-  </si>
-  <si>
     <t>Team Member</t>
   </si>
   <si>
-    <t>Task 8</t>
-  </si>
-  <si>
-    <t>Task 9</t>
-  </si>
-  <si>
-    <t>Task 10</t>
-  </si>
-  <si>
     <t>Ideal - Remaining efforts in uninterrupted working hours.</t>
   </si>
   <si>
@@ -148,27 +133,6 @@
     <t>gain access to the game</t>
   </si>
   <si>
-    <t>Shad</t>
-  </si>
-  <si>
-    <t>choose the difficulty</t>
-  </si>
-  <si>
-    <t>start a new game.</t>
-  </si>
-  <si>
-    <t>User manager</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>see a list of user accounts</t>
-  </si>
-  <si>
-    <t>print a report of current accounts</t>
-  </si>
-  <si>
     <t>Step 1</t>
   </si>
   <si>
@@ -226,40 +190,127 @@
     <t>Ryan</t>
   </si>
   <si>
-    <t>As a user, I want to be able to fill out a registration form with my First Name, Last Name, Sex, Age, State, Email, Username, and Password.</t>
-  </si>
-  <si>
-    <t>As a user, I want the registration form to perform server-side form validation to ensure my information is correct.</t>
-  </si>
-  <si>
-    <t>As a user, I want my information to be saved in a SQL Server relational database when I submit the registration form</t>
-  </si>
-  <si>
-    <t>As a user, I want to be forwarded to a success or error page after submitting the registration form.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to fill out a login form with my Username and Password.</t>
-  </si>
-  <si>
-    <t>As a user, I want the login form to use the SQL Server database for authentication.</t>
-  </si>
-  <si>
-    <t>As a user, I want to be forwarded to a success or error page after submitting the login form.</t>
-  </si>
-  <si>
-    <t>Build database</t>
-  </si>
-  <si>
-    <t>Add Views</t>
-  </si>
-  <si>
-    <t>Add more views</t>
-  </si>
-  <si>
-    <t>Add Security Model</t>
-  </si>
-  <si>
-    <t>Connect Security Model to login Controller</t>
+    <t>As a user, I want to be able to login and register from the main screen</t>
+  </si>
+  <si>
+    <t>Edit View</t>
+  </si>
+  <si>
+    <t>As a user, after logging in, I want the game board to be displayed</t>
+  </si>
+  <si>
+    <t>create view</t>
+  </si>
+  <si>
+    <t>As a user, I want the images to be scaled properly and arranged in logical order with a nice looking feel.</t>
+  </si>
+  <si>
+    <t>As a user, I want the buttons state to update using the game logic to ensure the proper button are updated</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to click on the button with the left mouse button and show a change when clicked.</t>
+  </si>
+  <si>
+    <t>As a user, I want the backend controllers to implement game logic and rules</t>
+  </si>
+  <si>
+    <t>Edit view</t>
+  </si>
+  <si>
+    <t>Edit View and Controller</t>
+  </si>
+  <si>
+    <t>Edit view and add Controller for button</t>
+  </si>
+  <si>
+    <t>Add Models for game</t>
+  </si>
+  <si>
+    <t>provide server side validation</t>
+  </si>
+  <si>
+    <t>to ensure information is correct</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>have my information stored in an sql database</t>
+  </si>
+  <si>
+    <t>login again when I return to the applocation</t>
+  </si>
+  <si>
+    <t>be forwarded to a success or fail page</t>
+  </si>
+  <si>
+    <t>Login Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill out a login form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">login </t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>have the login form connected to the database</t>
+  </si>
+  <si>
+    <t>ensure authentication</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>to ensure information is correct on login</t>
+  </si>
+  <si>
+    <t>know if my information was correct or not on registration</t>
+  </si>
+  <si>
+    <t>login from the main screen</t>
+  </si>
+  <si>
+    <t>easily navigate application</t>
+  </si>
+  <si>
+    <t>game view</t>
+  </si>
+  <si>
+    <t>have the game board displayed for me to play</t>
+  </si>
+  <si>
+    <t>have the images displayed and scaled properly</t>
+  </si>
+  <si>
+    <t>have an aestecical experience</t>
+  </si>
+  <si>
+    <t>controller &amp; game view</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> have the buttons state to update using the game logic </t>
+  </si>
+  <si>
+    <t>ensure the proper buttons are being updated</t>
+  </si>
+  <si>
+    <t>be able to left click on a button</t>
+  </si>
+  <si>
+    <t>show the button status change visually</t>
+  </si>
+  <si>
+    <t>have the backend controllers to implement the game logic</t>
+  </si>
+  <si>
+    <t>eventually play the game</t>
   </si>
 </sst>
 </file>
@@ -269,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +357,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -376,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -435,12 +500,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -566,6 +646,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -656,37 +740,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.5000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>4.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>2.200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.1000000000000019</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0</c:v>
+                  <c:v>1.7763568394002505E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,37 +816,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A2" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1256,22 +1340,22 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F5" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1280,7 +1364,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -1290,15 +1374,17 @@
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
       <c r="C6" s="41" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F6" s="27">
         <v>1</v>
@@ -1318,17 +1404,19 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F7" s="27">
         <v>2</v>
@@ -1350,20 +1438,22 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
-        <v>65</v>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F8" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -1375,25 +1465,29 @@
       <c r="N8" s="29">
         <v>1</v>
       </c>
-      <c r="O8" s="29"/>
+      <c r="O8" s="29">
+        <v>1</v>
+      </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
-        <v>66</v>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F9" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1405,22 +1499,26 @@
       <c r="N9" s="10">
         <v>2</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="10">
+        <v>1</v>
+      </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
-        <v>67</v>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F10" s="27">
         <v>1</v>
@@ -1440,18 +1538,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="27">
         <v>1</v>
       </c>
@@ -1463,22 +1555,18 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10">
-        <v>1</v>
-      </c>
+      <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="27">
         <v>0</v>
@@ -1520,11 +1608,9 @@
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="27">
         <v>0</v>
@@ -1566,11 +1652,9 @@
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="27">
         <v>0</v>
@@ -1611,54 +1695,54 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="23">
         <f>SUM(F5:F14)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="23">
         <f>F15-$F$15/10</f>
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H15" s="23">
         <f t="shared" ref="H15:P15" si="0">G15-$F$15/10</f>
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>7.7000000000000011</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.6000000000000014</v>
       </c>
       <c r="K15" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.5000000000000018</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.4000000000000021</v>
       </c>
       <c r="M15" s="23">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.300000000000002</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.200000000000002</v>
       </c>
       <c r="O15" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1000000000000019</v>
       </c>
       <c r="P15" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1666,54 +1750,54 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="23">
         <f>SUM(F5:F14)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" ref="G16:P16" si="1">F16 - SUM(G5:G14)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16" s="23">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N16" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2177,7 +2261,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2278,7 @@
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="43" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -2204,19 +2288,19 @@
     </row>
     <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -2233,174 +2317,338 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3" s="22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F4" s="22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="H5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="7"/>
+      <c r="G7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="22">
+        <v>2</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -2601,74 +2849,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -2742,19 +2990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d6188da8-f31e-469a-aed4-03a23c44e36a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="37d47695-dda2-48a2-87bc-2a1f7ac7fedc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9FDC2B66788A044965A7B8958E6244A" ma:contentTypeVersion="1259" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="646631f20d54bed2e69d412d0691797c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d6188da8-f31e-469a-aed4-03a23c44e36a" xmlns:ns3="37d47695-dda2-48a2-87bc-2a1f7ac7fedc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5c5979c6f6f9ec5c0301c354a42d4b0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3014,6 +3249,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d6188da8-f31e-469a-aed4-03a23c44e36a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="37d47695-dda2-48a2-87bc-2a1f7ac7fedc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3024,18 +3272,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="d6188da8-f31e-469a-aed4-03a23c44e36a"/>
-    <ds:schemaRef ds:uri="37d47695-dda2-48a2-87bc-2a1f7ac7fedc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99B6512B-855F-40C0-89A6-E9ABCD32FB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3055,6 +3291,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="d6188da8-f31e-469a-aed4-03a23c44e36a"/>
+    <ds:schemaRef ds:uri="37d47695-dda2-48a2-87bc-2a1f7ac7fedc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
   <ds:schemaRefs>
